--- a/file_export/bo_nhiem/danhsach_form.xlsx
+++ b/file_export/bo_nhiem/danhsach_form.xlsx
@@ -207,48 +207,9 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -258,18 +219,9 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,8 +231,56 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,133 +589,133 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:XFD8"/>
+      <selection activeCell="C5" activeCellId="4" sqref="C2:F2 C1:F1 C3:H3 H1:I1 C5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="18" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="8.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="11" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="23"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" s="16" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:10" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="5">
         <v>6</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/file_export/bo_nhiem/danhsach_form.xlsx
+++ b/file_export/bo_nhiem/danhsach_form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="15480" windowHeight="8415" tabRatio="654"/>
@@ -70,22 +70,21 @@
     <t>TỔNG HỢP DANH SÁCH CÁN BỘ ĐẾN THỜI HẠN BỔ NHIỆM LẠI NĂM</t>
   </si>
   <si>
-    <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG 
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
-</t>
-  </si>
-  <si>
-    <t>***</t>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,22 +145,29 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -222,64 +228,70 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,67 +601,71 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="4" sqref="C2:F2 C1:F1 C3:H3 H1:I1 C5:J6"/>
+      <selection activeCell="C3" sqref="C3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" style="11" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="8.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="16" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -677,9 +693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:10" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
@@ -705,24 +721,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="24" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:H3"/>
+  <mergeCells count="5">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
